--- a/02项目过程管理/05项目管理/人员签到.xlsx
+++ b/02项目过程管理/05项目管理/人员签到.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\05项目管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B5CB91-D62E-434F-B0ED-9CDB75E75F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2155753-319D-49A6-9888-B3BE9ED2DC00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,26 @@
   </si>
   <si>
     <t>孙伟杰（到岗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9点30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18点30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8点30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李超（到岗）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -378,9 +398,10 @@
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,78 +417,147 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43909</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43910</v>
       </c>

--- a/02项目过程管理/05项目管理/人员签到.xlsx
+++ b/02项目过程管理/05项目管理/人员签到.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\05项目管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2155753-319D-49A6-9888-B3BE9ED2DC00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6120C1EF-9D99-45A9-8FD1-EB5456584031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>李超（到岗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18点50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -389,7 +394,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -500,11 +505,20 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="2">
+        <v>0.78472222222222221</v>
+      </c>
       <c r="F5" t="s">
         <v>7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
